--- a/cypress/fixtures/loginData3.xlsx
+++ b/cypress/fixtures/loginData3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\cypress\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D48FB17-A5D4-4514-9C5A-DCBCF599375C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7A904-9558-4C7E-A100-DAD08783F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,14 +26,13 @@
     <sheet name="AccountInquary" sheetId="10" r:id="rId11"/>
     <sheet name="AccNominee" sheetId="18" r:id="rId12"/>
     <sheet name="DepoAccBeneficiary" sheetId="21" r:id="rId13"/>
-    <sheet name="EmployeeDetails" sheetId="15" r:id="rId14"/>
+    <sheet name="EmployeeInfo" sheetId="15" r:id="rId14"/>
     <sheet name="DefineCreditLine" sheetId="13" r:id="rId15"/>
     <sheet name="FinProposalRegister" sheetId="14" r:id="rId16"/>
     <sheet name="FinApproval" sheetId="19" r:id="rId17"/>
     <sheet name="FinCommitment" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -651,7 +650,7 @@
     <t>2005 - Deposit Account Beneficiary</t>
   </si>
   <si>
-    <t>emp-001</t>
+    <t>EMP078</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1340,7 @@
   <dimension ref="A1:AT2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cypress/fixtures/loginData3.xlsx
+++ b/cypress/fixtures/loginData3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\cypress\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC7A904-9558-4C7E-A100-DAD08783F5DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB03FEF-4EFF-404A-9D58-FA2BCFE75BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,8 @@
     <sheet name="TDAccOpen" sheetId="11" r:id="rId5"/>
     <sheet name="NftAuth" sheetId="4" r:id="rId6"/>
     <sheet name="DDTrans" sheetId="7" r:id="rId7"/>
-    <sheet name="SDTrans" sheetId="16" r:id="rId8"/>
-    <sheet name="TDTrans" sheetId="17" r:id="rId9"/>
+    <sheet name="TDTrans" sheetId="17" r:id="rId8"/>
+    <sheet name="SDTrans" sheetId="16" r:id="rId9"/>
     <sheet name="TransAuth" sheetId="8" r:id="rId10"/>
     <sheet name="AccountInquary" sheetId="10" r:id="rId11"/>
     <sheet name="AccNominee" sheetId="18" r:id="rId12"/>
@@ -33,6 +33,7 @@
     <sheet name="FinCommitment" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="201">
   <si>
     <t>url</t>
   </si>
@@ -131,9 +132,6 @@
   </si>
   <si>
     <t>876410</t>
-  </si>
-  <si>
-    <t>669912118</t>
   </si>
   <si>
     <t>251</t>
@@ -554,9 +552,6 @@
     <t>env_Category</t>
   </si>
   <si>
-    <t>608 - CASH CREDIT – HYPO</t>
-  </si>
-  <si>
     <t>3111 - Investment Proposal - Data Entry</t>
   </si>
   <si>
@@ -651,6 +646,39 @@
   </si>
   <si>
     <t>EMP078</t>
+  </si>
+  <si>
+    <t>http://192.168.10.199/BankUltimusSPARK/</t>
+  </si>
+  <si>
+    <t>jewel1046</t>
+  </si>
+  <si>
+    <t>rasel1151</t>
+  </si>
+  <si>
+    <t>701 - CORP CASH CREDIT - HYPOTHECATION</t>
+  </si>
+  <si>
+    <t>Agriculture Department</t>
+  </si>
+  <si>
+    <t>5007121000017</t>
+  </si>
+  <si>
+    <t>6699251000017</t>
+  </si>
+  <si>
+    <t>6699316000027</t>
+  </si>
+  <si>
+    <t>    </t>
+  </si>
+  <si>
+    <t>                                                                                                                                                                         </t>
+  </si>
+  <si>
+    <t>605 - PKB_Continuous</t>
   </si>
 </sst>
 </file>
@@ -710,7 +738,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -720,6 +748,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF5F5F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,7 +771,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -756,6 +790,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1038,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,21 +1088,21 @@
     <col min="2" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>19</v>
       </c>
@@ -1074,8 +1112,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
@@ -1085,16 +1126,50 @@
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
         <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>77</v>
       </c>
       <c r="C4">
         <v>12345</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1122,10 +1197,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1150,7 +1225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24DFEDC-F147-420A-A606-CE8A5A25A847}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1159,7 +1236,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -1169,7 +1246,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1198,84 +1275,84 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" t="s">
         <v>164</v>
       </c>
-      <c r="B1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" t="s">
         <v>166</v>
       </c>
-      <c r="D1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L1" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
         <v>168</v>
-      </c>
-      <c r="G1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" t="s">
-        <v>100</v>
-      </c>
-      <c r="I1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" t="s">
-        <v>111</v>
-      </c>
-      <c r="M1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="D2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="J2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M2" s="9">
         <v>36841</v>
@@ -1306,27 +1383,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C1" t="s">
-        <v>188</v>
-      </c>
       <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
         <v>176</v>
-      </c>
-      <c r="E1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1339,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DE7DD4-3D62-43F3-853A-423D003E7742}">
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1370,183 +1447,183 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>81</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>82</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>83</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>84</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>86</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" t="s">
         <v>88</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>121</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
         <v>123</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>131</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" t="s">
-        <v>133</v>
       </c>
       <c r="H2" s="9">
         <v>33215</v>
       </c>
       <c r="I2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K2" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" t="s">
         <v>128</v>
       </c>
-      <c r="M2" t="s">
-        <v>129</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O2">
         <v>5.9</v>
@@ -1555,7 +1632,7 @@
         <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R2" s="9">
         <v>43501</v>
@@ -1589,54 +1666,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>65</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>67</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>70</v>
-      </c>
-      <c r="H1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1647,10 +1724,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20328DE-E202-43FD-962B-7170F65CDF91}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,7 +1740,7 @@
     <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
@@ -1675,67 +1752,67 @@
   <sheetData>
     <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="B1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" t="s">
-        <v>74</v>
-      </c>
       <c r="G1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" t="s">
         <v>142</v>
       </c>
-      <c r="H1" t="s">
-        <v>137</v>
-      </c>
-      <c r="I1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>143</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>144</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>145</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>146</v>
       </c>
-      <c r="N1" t="s">
-        <v>147</v>
-      </c>
       <c r="O1" t="s">
+        <v>148</v>
+      </c>
+      <c r="P1" t="s">
         <v>149</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>150</v>
       </c>
-      <c r="Q1" t="s">
-        <v>151</v>
-      </c>
       <c r="R1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="S1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="T1" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" t="s">
         <v>153</v>
-      </c>
-      <c r="U1" t="s">
-        <v>154</v>
       </c>
       <c r="V1" s="10"/>
     </row>
@@ -1744,7 +1821,7 @@
         <v>1234</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C2">
         <v>876410</v>
@@ -1759,22 +1836,22 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J2" t="s">
         <v>138</v>
       </c>
-      <c r="H2" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" t="s">
-        <v>139</v>
-      </c>
       <c r="K2" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M2">
         <v>100000</v>
@@ -1783,29 +1860,104 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P2">
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="S2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="T2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="U2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>10000008</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" t="s">
+        <v>193</v>
+      </c>
+      <c r="L3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3">
+        <v>100000</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>147</v>
+      </c>
+      <c r="R3" t="s">
+        <v>151</v>
+      </c>
+      <c r="S3" t="s">
+        <v>151</v>
+      </c>
+      <c r="T3" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="K4" s="10"/>
+      <c r="U3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J8" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" t="s">
+        <v>199</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1828,24 +1980,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1855,35 +2007,50 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553819EE-EFB6-46E5-9349-0EFBBF77EBC3}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB203C0-CA1F-4DE4-9DFD-626961E733A7}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1896,7 +2063,7 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -2016,7 +2183,7 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="11">
         <v>3111</v>
       </c>
       <c r="C12">
@@ -2082,7 +2249,7 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="11">
         <v>3121</v>
       </c>
       <c r="C18">
@@ -2093,7 +2260,7 @@
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="11">
         <v>3131</v>
       </c>
       <c r="C19">
@@ -2112,8 +2279,55 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>7003</v>
+      </c>
       <c r="C21">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>7002</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2151,37 +2365,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2243,33 +2457,33 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -2317,36 +2531,36 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>25</v>
@@ -2386,7 +2600,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,7 +2612,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -2414,7 +2628,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2422,7 +2636,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2430,7 +2644,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2438,7 +2652,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2446,7 +2660,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2454,7 +2668,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2462,7 +2676,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -2493,7 +2707,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E2"/>
+      <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,24 +2718,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>57</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>195</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -2543,29 +2757,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD2C5B5-A259-49DA-89E3-9AF6258F1148}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD55E16-0765-4584-AA03-D51EA48ACCE6}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>15000</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2">
+        <v>100000</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2574,29 +2803,45 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD55E16-0765-4584-AA03-D51EA48ACCE6}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD2C5B5-A259-49DA-89E3-9AF6258F1148}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>100000</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2">
+        <v>15000</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/fixtures/loginData3.xlsx
+++ b/cypress/fixtures/loginData3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\cypress\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB03FEF-4EFF-404A-9D58-FA2BCFE75BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A3D74D-EFC4-48F5-967B-369AC426EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="888" firstSheet="10" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,6 @@
     <sheet name="FinCommitment" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -284,9 +283,6 @@
     <t>http://192.168.10.36:4200/sign-in</t>
   </si>
   <si>
-    <t>inzamam</t>
-  </si>
-  <si>
     <t>emp_ID</t>
   </si>
   <si>
@@ -679,6 +675,9 @@
   </si>
   <si>
     <t>605 - PKB_Continuous</t>
+  </si>
+  <si>
+    <t>Anamika</t>
   </si>
 </sst>
 </file>
@@ -1078,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1135,10 +1134,10 @@
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="C4">
-        <v>12345</v>
+        <v>123456</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1146,10 +1145,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" t="s">
         <v>190</v>
-      </c>
-      <c r="B5" t="s">
-        <v>191</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1160,10 +1159,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1246,7 +1245,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1275,84 +1274,84 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" t="s">
         <v>162</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>163</v>
       </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K1" t="s">
         <v>166</v>
       </c>
-      <c r="G1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" t="s">
         <v>167</v>
-      </c>
-      <c r="L1" t="s">
-        <v>110</v>
-      </c>
-      <c r="M1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>170</v>
-      </c>
-      <c r="B2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>171</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" t="s">
+        <v>171</v>
+      </c>
+      <c r="L2" t="s">
         <v>172</v>
-      </c>
-      <c r="H2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" t="s">
-        <v>173</v>
       </c>
       <c r="M2" s="9">
         <v>36841</v>
@@ -1383,27 +1382,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B1" t="s">
         <v>184</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>185</v>
       </c>
-      <c r="C1" t="s">
-        <v>186</v>
-      </c>
       <c r="D1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -1447,183 +1446,183 @@
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>78</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>79</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>80</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>81</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>83</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>84</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P1" s="8" t="s">
+      <c r="Q1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="R1" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="R1" s="8" t="s">
+      <c r="S1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="S1" s="8" t="s">
+      <c r="T1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="V1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="W1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="Z1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AB1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AD1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="AD1" s="8" t="s">
+      <c r="AJ1" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN1" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO1" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AP1" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="AE1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="AP1" s="8" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="AQ1" s="8" t="s">
+      <c r="AR1" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="AR1" s="8" t="s">
+      <c r="AS1" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="AS1" s="8" t="s">
+      <c r="AT1" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="AT1" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" t="s">
         <v>122</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G2" t="s">
-        <v>132</v>
       </c>
       <c r="H2" s="9">
         <v>33215</v>
       </c>
       <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" t="s">
         <v>127</v>
       </c>
-      <c r="M2" t="s">
-        <v>128</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O2">
         <v>5.9</v>
@@ -1632,7 +1631,7 @@
         <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R2" s="9">
         <v>43501</v>
@@ -1770,49 +1769,49 @@
         <v>73</v>
       </c>
       <c r="G1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" t="s">
         <v>141</v>
       </c>
-      <c r="H1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>142</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>143</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>144</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>145</v>
       </c>
-      <c r="N1" t="s">
-        <v>146</v>
-      </c>
       <c r="O1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" t="s">
         <v>148</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>149</v>
       </c>
-      <c r="Q1" t="s">
-        <v>150</v>
-      </c>
       <c r="R1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="S1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" t="s">
         <v>152</v>
-      </c>
-      <c r="U1" t="s">
-        <v>153</v>
       </c>
       <c r="V1" s="10"/>
     </row>
@@ -1821,7 +1820,7 @@
         <v>1234</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>876410</v>
@@ -1836,19 +1835,19 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H2" t="s">
+        <v>136</v>
+      </c>
+      <c r="I2" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" t="s">
         <v>137</v>
       </c>
-      <c r="H2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" t="s">
-        <v>140</v>
-      </c>
-      <c r="J2" t="s">
-        <v>138</v>
-      </c>
       <c r="K2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="L2" t="s">
         <v>33</v>
@@ -1860,25 +1859,25 @@
         <v>12</v>
       </c>
       <c r="O2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P2">
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1886,7 +1885,7 @@
         <v>1234</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C3">
         <v>93</v>
@@ -1901,19 +1900,19 @@
         <v>19</v>
       </c>
       <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" t="s">
         <v>137</v>
       </c>
-      <c r="H3" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>138</v>
-      </c>
       <c r="K3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L3" t="s">
         <v>33</v>
@@ -1925,38 +1924,38 @@
         <v>12</v>
       </c>
       <c r="O3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P3">
         <v>12</v>
       </c>
       <c r="Q3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="S3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="T3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="U3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J8" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="J11" t="s">
+        <v>197</v>
+      </c>
+      <c r="K11" t="s">
         <v>198</v>
-      </c>
-      <c r="K11" t="s">
-        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1980,24 +1979,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
         <v>179</v>
-      </c>
-      <c r="B1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553819EE-EFB6-46E5-9349-0EFBBF77EBC3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -2023,7 +2022,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +2035,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2636,7 +2635,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2652,7 +2651,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2660,7 +2659,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2668,7 +2667,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2676,7 +2675,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -2735,7 +2734,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -2785,7 +2784,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B2">
         <v>100000</v>
@@ -2832,7 +2831,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2">
         <v>15000</v>

--- a/cypress/fixtures/loginData3.xlsx
+++ b/cypress/fixtures/loginData3.xlsx
@@ -1,36 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\cypress\BankUltimus_Automation\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A3D74D-EFC4-48F5-967B-369AC426EF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6527DFD6-552E-47F7-B7C4-2DC2128D0D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="888" firstSheet="16" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="MenuSearch" sheetId="2" r:id="rId2"/>
-    <sheet name="DDAccOpen" sheetId="3" r:id="rId3"/>
-    <sheet name="SDAccOpen" sheetId="12" r:id="rId4"/>
-    <sheet name="TDAccOpen" sheetId="11" r:id="rId5"/>
-    <sheet name="NftAuth" sheetId="4" r:id="rId6"/>
-    <sheet name="DDTrans" sheetId="7" r:id="rId7"/>
-    <sheet name="TDTrans" sheetId="17" r:id="rId8"/>
-    <sheet name="SDTrans" sheetId="16" r:id="rId9"/>
-    <sheet name="TransAuth" sheetId="8" r:id="rId10"/>
-    <sheet name="AccountInquary" sheetId="10" r:id="rId11"/>
-    <sheet name="AccNominee" sheetId="18" r:id="rId12"/>
-    <sheet name="DepoAccBeneficiary" sheetId="21" r:id="rId13"/>
-    <sheet name="EmployeeInfo" sheetId="15" r:id="rId14"/>
-    <sheet name="DefineCreditLine" sheetId="13" r:id="rId15"/>
-    <sheet name="FinProposalRegister" sheetId="14" r:id="rId16"/>
-    <sheet name="FinApproval" sheetId="19" r:id="rId17"/>
-    <sheet name="FinCommitment" sheetId="20" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="27" r:id="rId3"/>
+    <sheet name="DDAccOpen" sheetId="3" r:id="rId4"/>
+    <sheet name="SDAccOpen" sheetId="12" r:id="rId5"/>
+    <sheet name="TDAccOpen" sheetId="11" r:id="rId6"/>
+    <sheet name="NftAuth" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="25" r:id="rId8"/>
+    <sheet name="DDTrans" sheetId="7" r:id="rId9"/>
+    <sheet name="TDTrans" sheetId="17" r:id="rId10"/>
+    <sheet name="SDTrans" sheetId="16" r:id="rId11"/>
+    <sheet name="TransAuth" sheetId="8" r:id="rId12"/>
+    <sheet name="AccountInquary" sheetId="10" r:id="rId13"/>
+    <sheet name="AccNominee" sheetId="18" r:id="rId14"/>
+    <sheet name="DepoAccBeneficiary" sheetId="21" r:id="rId15"/>
+    <sheet name="EmployeeInfo" sheetId="15" r:id="rId16"/>
+    <sheet name="DefineCreditLine" sheetId="13" r:id="rId17"/>
+    <sheet name="FinProposalRegister" sheetId="14" r:id="rId18"/>
+    <sheet name="FinApproval" sheetId="19" r:id="rId19"/>
+    <sheet name="FinCommitment" sheetId="20" r:id="rId20"/>
+    <sheet name="LoanAccount" sheetId="22" r:id="rId21"/>
+    <sheet name="LonAccTrfTrans" sheetId="23" r:id="rId22"/>
+    <sheet name="Lien" sheetId="24" r:id="rId23"/>
+    <sheet name="CollateralsCollection" sheetId="26" r:id="rId24"/>
+    <sheet name="FixedAsset" sheetId="28" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -53,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="245">
   <si>
     <t>url</t>
   </si>
@@ -481,34 +488,6 @@
     <t>expo_Type</t>
   </si>
   <si>
-    <r>
-      <t>product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF474759"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>approval_Auth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF474759"/>
-        <rFont val="Trebuchet MS"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>limit_Amount</t>
   </si>
   <si>
@@ -678,6 +657,144 @@
   </si>
   <si>
     <t>Anamika</t>
+  </si>
+  <si>
+    <t>3131 - Commitments Portfolio Register</t>
+  </si>
+  <si>
+    <t>3203 - Investment Account Opening</t>
+  </si>
+  <si>
+    <t>withdrawals</t>
+  </si>
+  <si>
+    <t>3205 - Investment Account Allowable Limit Maintenance</t>
+  </si>
+  <si>
+    <t>http://192.168.10.253:4200/mx/components</t>
+  </si>
+  <si>
+    <t>SOD</t>
+  </si>
+  <si>
+    <t>762 - SOD ON FDR</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>Term Deposit Rate +/- Spread</t>
+  </si>
+  <si>
+    <t>approval_Auth</t>
+  </si>
+  <si>
+    <t>acc_no</t>
+  </si>
+  <si>
+    <t>6699251000032</t>
+  </si>
+  <si>
+    <t>         </t>
+  </si>
+  <si>
+    <t>Our bank - Client Account</t>
+  </si>
+  <si>
+    <t>lien_Request</t>
+  </si>
+  <si>
+    <t>amount_Type</t>
+  </si>
+  <si>
+    <t>Principle Amount</t>
+  </si>
+  <si>
+    <t>2021 - Deposit Account Lien</t>
+  </si>
+  <si>
+    <t>Lien/Pledge of Instruments (FDR, SP etc.)</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>LIEN OF INSTRUMENTS-FDR</t>
+  </si>
+  <si>
+    <t>collateral_Category</t>
+  </si>
+  <si>
+    <t>security_Type</t>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+  </si>
+  <si>
+    <t>charge_Type</t>
+  </si>
+  <si>
+    <t>1ST CHARGE</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>783 - SME TERM LOAN</t>
+  </si>
+  <si>
+    <t>account_No</t>
+  </si>
+  <si>
+    <t>Present Value</t>
+  </si>
+  <si>
+    <t>collateral_Type_ID</t>
+  </si>
+  <si>
+    <t>collateral_Value_Type</t>
+  </si>
+  <si>
+    <t>3151 - Collaterals Collections</t>
+  </si>
+  <si>
+    <t>667 - SEBL_Continuous Loan</t>
+  </si>
+  <si>
+    <t>2 - 6 - Building Construction 5 - Material Cost</t>
+  </si>
+  <si>
+    <t>Proposal_Type</t>
+  </si>
+  <si>
+    <t>Product_Type</t>
+  </si>
+  <si>
+    <t>is_purpose_wise</t>
+  </si>
+  <si>
+    <t>Multiple Line</t>
+  </si>
+  <si>
+    <t>Purpose_Map_Type</t>
+  </si>
+  <si>
+    <t>Outer_Credit_Line</t>
+  </si>
+  <si>
+    <t>285 - House Building Loan</t>
+  </si>
+  <si>
+    <t>Outer_Purpose_Map_Type</t>
+  </si>
+  <si>
+    <t>2 - 2 - 6 - Building Construction 5 - Material Cost</t>
+  </si>
+  <si>
+    <t>Outer_Purpose_Sequence</t>
   </si>
 </sst>
 </file>
@@ -1075,10 +1192,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1134,7 +1251,7 @@
         <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4">
         <v>123456</v>
@@ -1145,10 +1262,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1159,16 +1276,24 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B6" t="s">
         <v>189</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="E6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1182,6 +1307,99 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD55E16-0765-4584-AA03-D51EA48ACCE6}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2">
+        <v>200000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD2C5B5-A259-49DA-89E3-9AF6258F1148}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2">
+        <v>15000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52160906-015D-4308-A814-3E4A80805C54}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1220,7 +1438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E24DFEDC-F147-420A-A606-CE8A5A25A847}">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -1245,7 +1463,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A220D25-A613-44FA-AE19-BCC6EE76ABF8}">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -1274,22 +1492,22 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
         <v>161</v>
       </c>
-      <c r="B1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
         <v>163</v>
-      </c>
-      <c r="D1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F1" t="s">
-        <v>165</v>
       </c>
       <c r="G1" t="s">
         <v>103</v>
@@ -1304,7 +1522,7 @@
         <v>100</v>
       </c>
       <c r="K1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L1" t="s">
         <v>109</v>
@@ -1313,45 +1531,45 @@
         <v>83</v>
       </c>
       <c r="N1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M2" s="9">
         <v>36841</v>
@@ -1365,7 +1583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5FF150-DFF6-447C-8A86-E884F10409C8}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1382,27 +1600,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
         <v>183</v>
       </c>
-      <c r="B1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" t="s">
-        <v>185</v>
-      </c>
       <c r="D1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" t="s">
         <v>173</v>
-      </c>
-      <c r="E1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +1629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DE7DD4-3D62-43F3-853A-423D003E7742}">
   <dimension ref="A1:AT2"/>
   <sheetViews>
@@ -1583,7 +1801,7 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>121</v>
@@ -1643,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571552C5-DA16-4D05-8F28-B75996559A84}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1720,250 +1938,499 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20328DE-E202-43FD-962B-7170F65CDF91}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection sqref="A1:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="39.85546875" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="21.42578125" customWidth="1"/>
+    <col min="24" max="24" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>74</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>140</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>135</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>138</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>141</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>235</v>
+      </c>
+      <c r="M1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" t="s">
         <v>142</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>143</v>
       </c>
-      <c r="M1" t="s">
-        <v>144</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>145</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
+        <v>146</v>
+      </c>
+      <c r="T1" t="s">
         <v>147</v>
       </c>
-      <c r="P1" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
+        <v>240</v>
+      </c>
+      <c r="V1" t="s">
+        <v>242</v>
+      </c>
+      <c r="W1" t="s">
+        <v>244</v>
+      </c>
+      <c r="X1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z1" t="s">
         <v>149</v>
       </c>
-      <c r="R1" t="s">
-        <v>156</v>
-      </c>
-      <c r="S1" t="s">
-        <v>155</v>
-      </c>
-      <c r="T1" t="s">
-        <v>151</v>
-      </c>
-      <c r="U1" t="s">
-        <v>152</v>
-      </c>
-      <c r="V1" s="10"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="AA1" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB1" s="10"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2">
         <v>1234</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>876410</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>10000008</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>136</v>
       </c>
       <c r="H2" t="s">
         <v>136</v>
       </c>
       <c r="I2" t="s">
+        <v>136</v>
+      </c>
+      <c r="J2" t="s">
         <v>139</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>137</v>
       </c>
-      <c r="K2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
+        <v>197</v>
+      </c>
+      <c r="O2" t="s">
         <v>33</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>100000</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>12</v>
       </c>
-      <c r="O2" t="s">
-        <v>146</v>
-      </c>
-      <c r="P2">
+      <c r="R2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
-        <v>146</v>
-      </c>
-      <c r="R2" t="s">
-        <v>150</v>
-      </c>
-      <c r="S2" t="s">
-        <v>150</v>
-      </c>
       <c r="T2" t="s">
-        <v>154</v>
-      </c>
-      <c r="U2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3">
+        <v>144</v>
+      </c>
+      <c r="X2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3">
         <v>1234</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3">
+      <c r="C3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3">
         <v>93</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10000008</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>136</v>
       </c>
       <c r="H3" t="s">
         <v>136</v>
       </c>
       <c r="I3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
         <v>139</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>137</v>
       </c>
-      <c r="K3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>190</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>100000</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>12</v>
       </c>
-      <c r="O3" t="s">
-        <v>146</v>
-      </c>
-      <c r="P3">
+      <c r="R3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S3">
         <v>12</v>
       </c>
-      <c r="Q3" t="s">
-        <v>146</v>
-      </c>
-      <c r="R3" t="s">
-        <v>150</v>
-      </c>
-      <c r="S3" t="s">
-        <v>150</v>
-      </c>
       <c r="T3" t="s">
-        <v>154</v>
-      </c>
-      <c r="U3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J8" s="12" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="J11" t="s">
-        <v>197</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="X3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4">
+        <v>1234</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4">
+        <v>876410</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>10000008</v>
+      </c>
+      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I4" t="s">
+        <v>136</v>
+      </c>
+      <c r="J4" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" t="s">
+        <v>137</v>
+      </c>
+      <c r="M4" t="s">
+        <v>205</v>
+      </c>
+      <c r="O4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4">
+        <v>100000</v>
+      </c>
+      <c r="Q4">
+        <v>12</v>
+      </c>
+      <c r="R4" t="s">
+        <v>144</v>
+      </c>
+      <c r="S4">
+        <v>12</v>
+      </c>
+      <c r="T4" t="s">
+        <v>144</v>
+      </c>
+      <c r="X4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5">
+        <v>1234</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5">
+        <v>876410</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>10000008</v>
+      </c>
+      <c r="G5">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" t="s">
+        <v>136</v>
+      </c>
+      <c r="J5" t="s">
+        <v>139</v>
+      </c>
+      <c r="K5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" t="s">
+        <v>227</v>
+      </c>
+      <c r="O5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5">
+        <v>100000</v>
+      </c>
+      <c r="Q5">
+        <v>12</v>
+      </c>
+      <c r="R5" t="s">
+        <v>144</v>
+      </c>
+      <c r="S5">
+        <v>12</v>
+      </c>
+      <c r="T5" t="s">
+        <v>144</v>
+      </c>
+      <c r="X5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6">
+        <v>1235</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6">
+        <v>876407</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>10000008</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6" t="s">
+        <v>139</v>
+      </c>
+      <c r="K6" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" t="s">
+        <v>233</v>
+      </c>
+      <c r="N6" t="s">
+        <v>234</v>
+      </c>
+      <c r="O6" t="s">
+        <v>33</v>
+      </c>
+      <c r="P6">
+        <v>500000</v>
+      </c>
+      <c r="Q6">
+        <v>12</v>
+      </c>
+      <c r="R6" t="s">
+        <v>144</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6" t="s">
+        <v>144</v>
+      </c>
+      <c r="U6" t="s">
+        <v>241</v>
+      </c>
+      <c r="V6" t="s">
+        <v>243</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="K8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="12"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="K11" t="s">
-        <v>198</v>
+        <v>195</v>
+      </c>
+      <c r="M11" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520352FF-3C64-4147-BA3E-600C45164306}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -1979,24 +2446,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2004,7 +2471,360 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB203C0-CA1F-4DE4-9DFD-626961E733A7}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="135.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>2001</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>8002</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>7031</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>8001</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2011</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>7001</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1264</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="11">
+        <v>3111</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>7032</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>7033</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>2012</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2004</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="11">
+        <v>3121</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3131</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>2005</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>7003</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>7002</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3203</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>7041</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>3205</v>
+      </c>
+      <c r="C25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>3211</v>
+      </c>
+      <c r="C26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27">
+        <v>7042</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>2021</v>
+      </c>
+      <c r="C28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>3151</v>
+      </c>
+      <c r="C29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>1761</v>
+      </c>
+      <c r="C30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553819EE-EFB6-46E5-9349-0EFBBF77EBC3}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -2022,7 +2842,7 @@
         <v>43</v>
       </c>
       <c r="B1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -2035,7 +2855,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2044,289 +2864,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB203C0-CA1F-4DE4-9DFD-626961E733A7}">
-  <dimension ref="A1:C28"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{988BC02E-B0D3-476D-A11D-3F82EBC591CF}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="127.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
+      <c r="A1" t="s">
+        <v>236</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>22</v>
+      <c r="A2" t="s">
+        <v>225</v>
       </c>
       <c r="B2">
-        <v>2001</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
+        <v>876410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
+      <c r="A3" t="s">
+        <v>237</v>
       </c>
       <c r="B3">
-        <v>8002</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>7031</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>8001</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6">
-        <v>2011</v>
-      </c>
-      <c r="C6">
+        <v>876407</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7">
-        <v>2011</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>7001</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9">
-        <v>2002</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10">
-        <v>2003</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>1264</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="11">
-        <v>3111</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13">
-        <v>7032</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14">
-        <v>2013</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15">
-        <v>7033</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>2012</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>2004</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="11">
-        <v>3121</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="11">
-        <v>3131</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20">
-        <v>2005</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>7003</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>7002</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2916,200 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D52273D-4B6F-46C7-B153-3D2071A027FC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5000</v>
+      </c>
+      <c r="B2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F0A9E02-C6DA-4C12-A42E-D9336DC47720}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845F9647-4EF9-4D97-A606-E207E577897D}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>228</v>
+      </c>
+      <c r="I1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2">
+        <v>876410</v>
+      </c>
+      <c r="G2">
+        <v>6699</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36C9EE3F-8CF0-4155-A00B-A20564453EE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B994F1AC-DFCF-4D24-916B-3FCFC3148DC1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5813B1-5843-40D8-80A2-E35B896B6A5A}">
   <dimension ref="A1:K2"/>
   <sheetViews>
@@ -2438,7 +3213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DDB11E-6353-4773-B9C5-3CF2BD55CCEC}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -2511,12 +3286,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B12D6C15-FE60-4052-BA8C-926F90F4933C}">
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2571,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="F2">
         <v>12345</v>
@@ -2594,17 +3369,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60500C62-56F3-4BCE-B231-A3186E7F6701}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2635,7 +3410,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2651,7 +3426,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2659,7 +3434,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2667,7 +3442,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2675,25 +3450,55 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
       <c r="B10">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>200</v>
+      </c>
       <c r="B11">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
       <c r="B12">
         <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2701,7 +3506,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3337B50A-C7EF-4821-B5C6-7515FC2F8F6D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC147EC4-0543-4D0F-A76B-07552AB7067A}">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -2734,7 +3551,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -2753,97 +3570,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DD55E16-0765-4584-AA03-D51EA48ACCE6}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2">
-        <v>100000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD2C5B5-A259-49DA-89E3-9AF6258F1148}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2">
-        <v>15000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>